--- a/medicine/Enfance/L'Apprenti_épouvanteur/L'Apprenti_épouvanteur.xlsx
+++ b/medicine/Enfance/L'Apprenti_épouvanteur/L'Apprenti_épouvanteur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27Apprenti_%C3%A9pouvanteur</t>
+          <t>L'Apprenti_épouvanteur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Apprenti épouvanteur (titre original : The Spook's Apprentice) est le premier tome de la série L'Épouvanteur signée Joseph Delaney. Paru en 2004, il est suivi de La Malédiction de l'épouvanteur.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27Apprenti_%C3%A9pouvanteur</t>
+          <t>L'Apprenti_épouvanteur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Thomas J. Ward, jeune garçon de presque treize ans, septième fils d'un septième fils, est confié à l'Épouvanteur John Gregory pour devenir apprenti dans ce dangereux métier.
 Sa mère en a décidé ainsi, assurant à l’Epouvanteur que Tom serait son meilleur apprenti.
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%27Apprenti_%C3%A9pouvanteur</t>
+          <t>L'Apprenti_épouvanteur</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>Adaptation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Intitulé Le Septième Fils, un film librement inspiré de la série de romans est sorti en 2014).
 L'apprenti Épouvanteur, bande dessinée inspirée du roman d'origine, écrite par Pierre Oertel et dessinée par Benjamin Bachelier.
